--- a/results/multiclass.xlsx
+++ b/results/multiclass.xlsx
@@ -467,27 +467,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>0.552 (0.551 Â± 0.001)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>0.612 (0.600 Â± 0.010)</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>1.000 (1.000 Â± 0.000)</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>0.684 (0.676 Â± 0.006)</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>0.996 (0.995 Â± 0.001)</t>
         </is>
       </c>
     </row>
@@ -499,27 +499,27 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>0.615 (0.552 Â± 0.024)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>0.632 (0.589 Â± 0.022)</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>1.000 (0.997 Â± 0.003)</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>0.712 (0.666 Â± 0.026)</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>1.000 (0.989 Â± 0.009)</t>
         </is>
       </c>
     </row>
@@ -531,27 +531,27 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>0.535 (0.466 Â± 0.037)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>0.577 (0.526 Â± 0.027)</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>1.000 (1.000 Â± 0.001)</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>0.667 (0.604 Â± 0.035)</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>1.000 (0.980 Â± 0.014)</t>
         </is>
       </c>
     </row>
@@ -563,27 +563,27 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>0.589 (0.529 Â± 0.029)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>0.648 (0.598 Â± 0.029)</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>1.000 (1.000 Â± 0.000)</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>0.697 (0.650 Â± 0.026)</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>0.995 (0.977 Â± 0.010)</t>
         </is>
       </c>
     </row>
@@ -595,27 +595,27 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>0.631 (0.569 Â± 0.031)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>0.669 (0.610 Â± 0.030)</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>1.000 (1.000 Â± 0.000)</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>0.733 (0.699 Â± 0.021)</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>1.000 (0.998 Â± 0.005)</t>
         </is>
       </c>
     </row>
@@ -627,27 +627,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>0.611 (0.564 Â± 0.026)</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>0.566 (0.532 Â± 0.021)</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>1.000 (1.000 Â± 0.000)</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>0.717 (0.663 Â± 0.028)</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>0.788 (0.746 Â± 0.032)</t>
         </is>
       </c>
     </row>
@@ -691,27 +691,27 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>0.604 (0.552 Â± 0.027)</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>0.652 (0.599 Â± 0.029)</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>1.000 (1.000 Â± 0.000)</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>0.730 (0.688 Â± 0.022)</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>1.000 (0.996 Â± 0.004)</t>
         </is>
       </c>
     </row>
@@ -723,27 +723,27 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>0.618 (0.568 Â± 0.029)</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>0.658 (0.601 Â± 0.027)</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>1.000 (0.999 Â± 0.002)</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>0.743 (0.696 Â± 0.023)</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>1.000 (0.989 Â± 0.010)</t>
         </is>
       </c>
     </row>
@@ -755,27 +755,27 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>0.521 (0.348 Â± 0.095)</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>0.551 (0.390 Â± 0.135)</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>0.915 (0.706 Â± 0.214)</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>0.665 (0.537 Â± 0.061)</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>0.846 (0.721 Â± 0.093)</t>
         </is>
       </c>
     </row>
@@ -787,27 +787,27 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>0.461 (0.415 Â± 0.029)</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>0.285 (0.239 Â± 0.022)</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>0.150 (0.104 Â± 0.022)</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>0.700 (0.647 Â± 0.033)</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>0.997 (0.931 Â± 0.029)</t>
         </is>
       </c>
     </row>
@@ -915,27 +915,27 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>0.619 (0.561 Â± 0.035)</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>0.666 (0.601 Â± 0.027)</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>1.000 (0.999 Â± 0.002)</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>0.725 (0.694 Â± 0.022)</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>1.000 (0.993 Â± 0.006)</t>
         </is>
       </c>
     </row>
@@ -947,27 +947,27 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>0.613 (0.561 Â± 0.028)</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>0.663 (0.607 Â± 0.027)</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>1.000 (0.983 Â± 0.076)</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>0.720 (0.689 Â± 0.021)</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>1.000 (0.994 Â± 0.006)</t>
         </is>
       </c>
     </row>
@@ -1020,27 +1020,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>00:01:36 (00:02:40 Â± 00:01:26)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>00:04:49 (00:05:33 Â± 00:01:05)</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>00:04:49 (00:05:20 Â± 00:00:23)</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>00:04:49 (00:05:20 Â± 00:00:46)</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>00:03:52 (00:05:00 Â± 00:00:37)</t>
         </is>
       </c>
     </row>
@@ -1052,27 +1052,27 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>00:00:14 (00:00:17 Â± 00:00:01)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>00:00:29 (00:00:34 Â± 00:00:05)</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>00:00:23 (00:00:25 Â± 00:00:01)</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>00:02:12 (00:03:39 Â± 00:00:31)</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>00:00:17 (00:00:26 Â± 00:00:09)</t>
         </is>
       </c>
     </row>
@@ -1084,27 +1084,27 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>00:00:27 (00:00:36 Â± 00:00:12)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>00:00:30 (00:00:41 Â± 00:00:10)</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>00:01:03 (00:01:23 Â± 00:00:15)</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>00:00:30 (00:00:44 Â± 00:00:10)</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>00:00:50 (00:01:17 Â± 00:00:14)</t>
         </is>
       </c>
     </row>
@@ -1116,27 +1116,27 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>00:05:06 (00:05:13 Â± 00:00:04)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>00:05:05 (00:05:14 Â± 00:00:04)</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>00:05:04 (00:05:12 Â± 00:00:03)</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>00:05:06 (00:05:15 Â± 00:00:05)</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>00:05:07 (00:05:13 Â± 00:00:03)</t>
         </is>
       </c>
     </row>
@@ -1148,27 +1148,27 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>00:04:56 (00:05:00 Â± 00:00:02)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>00:05:00 (00:05:04 Â± 00:00:02)</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>00:04:58 (00:05:02 Â± 00:00:02)</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>00:04:57 (00:05:02 Â± 00:00:02)</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>00:04:58 (00:05:02 Â± 00:00:02)</t>
         </is>
       </c>
     </row>
@@ -1180,27 +1180,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>00:05:01 (00:05:04 Â± 00:00:02)</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>00:05:01 (00:05:04 Â± 00:00:02)</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>00:05:00 (00:05:01 Â± 00:00:01)</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>00:05:01 (00:05:05 Â± 00:00:03)</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>00:05:00 (00:05:03 Â± 00:00:02)</t>
         </is>
       </c>
     </row>
@@ -1244,27 +1244,27 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>00:04:59 (00:05:00 Â± 00:00:00)</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>00:04:59 (00:05:01 Â± 00:00:01)</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>00:04:59 (00:04:59 Â± 00:00:00)</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>00:04:59 (00:05:00 Â± 00:00:00)</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>00:05:00 (00:05:01 Â± 00:00:02)</t>
         </is>
       </c>
     </row>
@@ -1276,27 +1276,27 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>00:04:29 (00:04:29 Â± 00:00:00)</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>00:04:29 (00:21:24 Â± 01:13:42)</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>00:04:29 (00:04:29 Â± 00:00:00)</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>00:04:29 (00:04:29 Â± 00:00:00)</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>00:04:29 (00:04:29 Â± 00:00:00)</t>
         </is>
       </c>
     </row>
@@ -1308,27 +1308,27 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>00:05:00 (00:05:05 Â± 00:00:01)</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>00:05:01 (00:05:05 Â± 00:00:01)</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>00:05:05 (00:05:06 Â± 00:00:01)</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>00:05:05 (00:05:06 Â± 00:00:00)</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>00:05:05 (00:05:06 Â± 00:00:00)</t>
         </is>
       </c>
     </row>
@@ -1340,27 +1340,27 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>00:02:15 (00:03:00 Â± 00:00:55)</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>00:01:57 (00:02:36 Â± 00:00:16)</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>00:02:44 (00:02:51 Â± 00:00:04)</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>00:01:37 (00:02:28 Â± 00:00:20)</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>00:01:53 (00:02:17 Â± 00:00:14)</t>
         </is>
       </c>
     </row>
@@ -1468,27 +1468,27 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>00:13:07 (00:13:36 Â± 00:00:29)</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>00:33:37 (00:35:59 Â± 00:01:27)</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>00:09:37 (00:10:09 Â± 00:00:22)</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>00:20:07 (00:21:53 Â± 00:01:06)</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>00:15:01 (00:15:55 Â± 00:00:24)</t>
         </is>
       </c>
     </row>
@@ -1500,27 +1500,27 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>00:05:00 (00:05:14 Â± 00:00:17)</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>00:05:00 (00:05:05 Â± 00:00:05)</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>00:05:01 (00:05:19 Â± 00:00:13)</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>00:05:01 (00:05:08 Â± 00:00:07)</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>00:05:02 (00:05:14 Â± 00:00:12)</t>
         </is>
       </c>
     </row>
@@ -1573,27 +1573,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>00:00:01 (00:00:07 Â± 00:00:02)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>00:00:00 (00:00:03 Â± 00:00:02)</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>00:00:01 (00:00:05 Â± 00:00:02)</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>00:00:00 (00:00:04 Â± 00:00:01)</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>00:00:01 (00:00:05 Â± 00:00:02)</t>
         </is>
       </c>
     </row>
@@ -1605,27 +1605,27 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
         </is>
       </c>
     </row>
@@ -1637,27 +1637,27 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>00:00:01 (00:00:01 Â± 00:00:00)</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
         </is>
       </c>
     </row>
@@ -1669,27 +1669,27 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>00:00:01 (00:00:02 Â± 00:00:01)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>00:00:01 (00:00:02 Â± 00:00:01)</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>00:00:01 (00:00:02 Â± 00:00:01)</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>00:00:01 (00:00:02 Â± 00:00:00)</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>00:00:01 (00:00:02 Â± 00:00:01)</t>
         </is>
       </c>
     </row>
@@ -1701,27 +1701,27 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>00:00:00 (00:00:01 Â± 00:00:00)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>00:00:01 (00:00:03 Â± 00:00:01)</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>00:00:01 (00:00:03 Â± 00:00:00)</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>00:00:01 (00:00:03 Â± 00:00:00)</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>00:00:02 (00:00:10 Â± 00:00:08)</t>
         </is>
       </c>
     </row>
@@ -1733,27 +1733,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
         </is>
       </c>
     </row>
@@ -1797,27 +1797,27 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
         </is>
       </c>
     </row>
@@ -1829,27 +1829,27 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
         </is>
       </c>
     </row>
@@ -1861,27 +1861,27 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
         </is>
       </c>
     </row>
@@ -1893,27 +1893,27 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
         </is>
       </c>
     </row>
@@ -2021,27 +2021,27 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
         </is>
       </c>
     </row>
@@ -2053,27 +2053,27 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
         </is>
       </c>
     </row>
@@ -2126,27 +2126,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -2158,27 +2158,27 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -2190,27 +2190,27 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -2222,27 +2222,27 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -2254,27 +2254,27 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -2286,27 +2286,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -2350,27 +2350,27 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -2382,27 +2382,27 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -2414,27 +2414,27 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -2446,27 +2446,27 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -2574,27 +2574,27 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -2606,27 +2606,27 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -2677,30 +2677,20 @@
           <t>4intelligence</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
+      <c r="B2" t="n">
+        <v>11</v>
+      </c>
+      <c r="C2" t="n">
+        <v>53</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E2" t="n">
+        <v>43</v>
+      </c>
+      <c r="F2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -2709,30 +2699,20 @@
           <t>autogluon</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
+      <c r="B3" t="n">
+        <v>37</v>
+      </c>
+      <c r="C3" t="n">
+        <v>47</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="n">
+        <v>67</v>
+      </c>
+      <c r="F3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -2741,30 +2721,20 @@
           <t>autokeras</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
+      <c r="B4" t="n">
+        <v>37</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2</v>
+      </c>
+      <c r="E4" t="n">
+        <v>59</v>
+      </c>
+      <c r="F4" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -2773,30 +2743,20 @@
           <t>autopytorch</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
+      <c r="B5" t="n">
+        <v>37</v>
+      </c>
+      <c r="C5" t="n">
+        <v>13</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2</v>
+      </c>
+      <c r="E5" t="n">
+        <v>67</v>
+      </c>
+      <c r="F5" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -2805,30 +2765,20 @@
           <t>autosklearn</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
+      <c r="B6" t="n">
+        <v>17</v>
+      </c>
+      <c r="C6" t="n">
+        <v>43</v>
+      </c>
+      <c r="D6" t="n">
+        <v>2</v>
+      </c>
+      <c r="E6" t="n">
+        <v>5</v>
+      </c>
+      <c r="F6" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="7">
@@ -2837,30 +2787,20 @@
           <t>evalml</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
+      <c r="B7" t="n">
+        <v>37</v>
+      </c>
+      <c r="C7" t="n">
+        <v>37</v>
+      </c>
+      <c r="D7" t="n">
+        <v>2</v>
+      </c>
+      <c r="E7" t="n">
+        <v>5</v>
+      </c>
+      <c r="F7" t="n">
+        <v>19</v>
       </c>
     </row>
     <row r="8">
@@ -2891,30 +2831,20 @@
           <t>flaml</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
+      <c r="B9" t="n">
+        <v>37</v>
+      </c>
+      <c r="C9" t="n">
+        <v>13</v>
+      </c>
+      <c r="D9" t="n">
+        <v>2</v>
+      </c>
+      <c r="E9" t="n">
+        <v>67</v>
+      </c>
+      <c r="F9" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="10">
@@ -2923,30 +2853,20 @@
           <t>gama</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
+      <c r="B10" t="n">
+        <v>7</v>
+      </c>
+      <c r="C10" t="n">
+        <v>47</v>
+      </c>
+      <c r="D10" t="n">
+        <v>2</v>
+      </c>
+      <c r="E10" t="n">
+        <v>37</v>
+      </c>
+      <c r="F10" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="11">
@@ -2955,30 +2875,20 @@
           <t>h2o</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
+      <c r="B11" t="n">
+        <v>13</v>
+      </c>
+      <c r="C11" t="n">
+        <v>23</v>
+      </c>
+      <c r="D11" t="n">
+        <v>13</v>
+      </c>
+      <c r="E11" t="n">
+        <v>37</v>
+      </c>
+      <c r="F11" t="n">
+        <v>67</v>
       </c>
     </row>
     <row r="12">
@@ -2987,30 +2897,20 @@
           <t>lightautoml</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
+      <c r="B12" t="n">
+        <v>17</v>
+      </c>
+      <c r="C12" t="n">
+        <v>23</v>
+      </c>
+      <c r="D12" t="n">
+        <v>17</v>
+      </c>
+      <c r="E12" t="n">
+        <v>17</v>
+      </c>
+      <c r="F12" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="13">
@@ -3085,30 +2985,20 @@
           <t>pycaret</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
+      <c r="B16" t="n">
+        <v>61</v>
+      </c>
+      <c r="C16" t="n">
+        <v>13</v>
+      </c>
+      <c r="D16" t="n">
+        <v>2</v>
+      </c>
+      <c r="E16" t="n">
+        <v>37</v>
+      </c>
+      <c r="F16" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="17">
@@ -3117,30 +3007,20 @@
           <t>tpot</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
+      <c r="B17" t="n">
+        <v>7</v>
+      </c>
+      <c r="C17" t="n">
+        <v>43</v>
+      </c>
+      <c r="D17" t="n">
+        <v>2</v>
+      </c>
+      <c r="E17" t="n">
+        <v>19</v>
+      </c>
+      <c r="F17" t="n">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
